--- a/file/ISL-906-MatsuGuide-01.xlsx
+++ b/file/ISL-906-MatsuGuide-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Islands/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99E41BC-FAC2-4442-8703-297939CD44E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950A969-013E-244F-B4F9-370F14D76ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="2280" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="4300" yWindow="2960" windowWidth="33920" windowHeight="21440" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,34 +43,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老酒麵線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Island</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北竿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芹壁鏡沃小吃部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位於芹壁聚落附近的北竿人氣小吃店，為一對老夫婦共同經營，據說是馬祖非常道地、同時也被許多人評為馬祖第一名的老酒麵線，麵線極細順口，酒香四溢的湯頭、用老酒麻油煎出來的荷包蛋、紅糟過的肉絲，以上獨特的亮點都替這一碗加分不少。等待時間較久，記得多預留時間哦。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,18 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>連江縣北竿鄉芹壁村75號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>週一至週日 10：00-13：30，16：00-18：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-365-5558</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Figure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,94 +75,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fig/ISL-5103-MatsuFood-01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pages/category/Food-Stand/%E8%8A%B9%E5%A3%81%E9%8F%A1%E6%B2%83%E5%B0%8F%E5%90%83%E9%83%A8-743696212341901/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>繼光餅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南竿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超群繼光餅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繼光餅又稱馬祖漢堡。由來自明朝將軍戚繼光，在快速掃蕩追擊倭寇時，為了縮短用餐時間和方便攜帶所發明的簡易乾糧。剛炸起鍋的繼光餅，撒上滿滿芝麻的甜甜圈外型，對切後再夾豬排和蔥花蛋，口味綜合了鹹甜香，整體咬下外酥內軟且芝麻香滿溢，不乾柴又有嚼勁，是馬祖當地的特色小吃之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連江縣南竿鄉馬祖村93號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-362-5655</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>週一至週日 07：00-18：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/ISL-5103-MatsuFood-02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ChaoQunJiGuangBing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼎邊糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿妹的店鼎邊糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位於馬祖南竿的介壽獅子市場2樓，是當地人也會吃的早餐好選擇。推薦許多人慕名而來的燕餃湯和海鮮鼎邊糊，燕餃皮薄Q彈味美且湯頭清香。鼎邊糊與鼎邊銼不同，前者有加米飯較滑順，海鮮配料有蛤蜊和魚丸魚塊，吃得出其中的鮮甜味！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連江縣南竿鄉介壽村獅子市場內</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-362-6375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>週一至週五 05：30-賣完為止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/ISL-5103-MatsuFood-03.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ryokousharoody.blogspot.com/2020/07/blog-post_21.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫弟餅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
@@ -204,102 +92,315 @@
     <t>006</t>
   </si>
   <si>
-    <t>阿婆（虫弟）餅 蠣餅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱身於馬祖仁愛市場內的阿婆虫弟餅（蠣餅），是福州傳統小吃，型似蚵嗲的外皮炸得酥脆卻不油膩，飽滿的內餡有豬肉、高麗菜、蛋和米粉，是每到下午嘴饞時的絕佳選擇。販賣品項只有虫弟餅和紅糟雞串，紅糟雞肉外層有著紅糟獨特的鹹甜風味，口感厚實且不乾柴，也同樣推薦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連江縣南竿鄉仁愛村15號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>週一至週日 14：00-18：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0919-213-923</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/ISL-5103-MatsuFood-04.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pages/category/Food-Stand/%E9%98%BF%E5%A9%86%E8%99%AB%E5%BC%9F%E9%A3%9F%E5%B9%B6-163919963796083/</t>
-  </si>
-  <si>
-    <t>淡菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/ISL-5103-MatsuFood-05.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來到馬祖，怎麼能不吃海鮮？必吃的就是貝肉肥美、鮮甜又營養的「淡菜」！盛產季節是每年的6~12 月，也就是說在這個時期品嚐就是它最美味的時候了。這裡告訴大家一個小知識，淡菜有雄雌之分，黃色是母的、白色則是公的，聽說黃色的比較好吃！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>津沙小館</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連江縣南竿鄉津沙村61號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:00~21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0911-761-505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/jinsha.restaurant/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅糟料理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擁有老酒釀造傳統，紅糟當然也就深入了當地的飲食文化之中。代表性的菜餚有紅糟肉、紅糟鰻、紅糟雞、紅糟炒飯等，紅糟不但能增添料理的香氣，對肉類也有風味提升的效果，更有改善血糖的功效，可以說是健康又美味的調味品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九榕閣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連江縣南竿鄉41號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-362-2888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:00~14:00, 16:00~21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/ISL-5103-MatsuFood-06.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.paine0602.com/jiurongge/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>馬祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八八坑道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽祖巨神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南竿北海坑道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍眼淚生態館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲台山軍情館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南竿鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹壁聚落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰爭和平紀念公園主題館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大坵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東莒島燈塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北竿鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莒光鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>國之北疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東引鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東湧燈塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2775&amp;l=1</t>
+  </si>
+  <si>
+    <t>東湧燈塔（又稱為東引島燈塔）位於世尾山山腰上－全馬祖列島的極東之地，亦有著北疆燈塔之稱，純白色的磚造塔身，高13公尺，洋溢著18世紀歐洲式建築風格，聳立於懸崖峭壁上。東湧燈塔的興建，起源於光緒27年（約1901年），長450英尺的輪船「蘇布輪號」行經東湧附近，因觸礁沉沒，雖乘客及貨品都安然無恙，但船公司損失慘重，又由於三都澳開埠後，進出口貿易額倍增，終於促成東湧燈塔的興建。1988年文建會評定為國家三級古蹟，並於2016年升格為國定古蹟，是台閩地區位置最北的一座古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-02.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-01.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-03.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-04.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-05.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-06.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-07.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-08.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-09.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-10.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-11.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3311-Matsu-12.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多人知道中華民國國境最南到南沙群島的曾母暗沙，但可能不知道國境最北，就在馬祖東引。
+往清水澳管制哨西北方向順著道路前行，爬過山頭直走到底，就是中華民國的國之北疆，但其實真正的台灣最北端極點可是位在羅漢坪岬角外海中的小礁石喔！這座礁石又稱為「北固礁」，位於西引后澳上方約600公尺處（座標位置N26°22'58.8" E120°28'34.0"），目前礁島上杳無人煙，會隨著潮水的漲退，時而隱没或出現。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-836-77267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連江縣東引鄉國之北疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連江縣東引鄉樂華村169號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-836-77037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連江縣莒光鄉福正村56號之1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-836-88283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2751&amp;l=1</t>
+  </si>
+  <si>
+    <t>東莒島燈塔，又名「東犬燈塔」，位在東莒島的東北方，清朝因鴉片戰爭失利，與英國簽訂南京條約開放沿海通商，為便於辨別福州方位，同治年間又應英人要求興建燈塔，造建於清同治11年（1872年），在此歷史背景下，東莒島燈塔於焉誕生。東莒島燈塔於1988年被內政部評定為台閩地區國定古蹟，是台灣第一座使用花崗岩建造的燈塔，外觀漆成雪白色，燈塔的高度約19.5公尺，光源經過蚌型水晶透鏡折射後，光程可遠達16.7浬（約31公里）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2782&amp;l=1</t>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2711&amp;l=1</t>
+  </si>
+  <si>
+    <t>連江縣北竿鄉芹壁聚落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-836-56531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要看地中海美景，不用千里迢迢飛到國外去，來馬祖北竿就可以看到媲美歐洲石頭山城的浪漫風情！芹壁是馬祖列島中保存馬祖傳統閩東建築最完整、也最具代表性的地方之一，深受國內外建築、文化和藝術界的青睞。早年村民以捕蝦皮為生，70年代漁業沒落，居民大多外遷謀生，原本因人口外移而留下的空屋群，在政府有計畫的修繕下，轉變為民宿以及藝文空間等，讓一座座石頭屋回復昔日多樣化的風貌，穿梭在蜿蜒的山城中，不難發現房屋上斑駁褪色的各種特色標語，彷彿墜入了時光迴廊，如今遊客看在眼裡，不由得莞爾一笑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2716&amp;l=1</t>
+  </si>
+  <si>
+    <t>連江縣北竿鄉戰爭和平紀念公園主題館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-928-421650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰爭和平紀念公園主題館就座落在戰爭和平紀念公園內，天氣晴朗時，還能遠眺大陸海岸線，相對於戰爭時代的緊張氣氛，更能與「戰爭和平」主題相異其趣。
+2010年正式揭牌，開幕時，馬管處邀請當年曾在馬祖開鑿坑道的「北海真英雄」們回訪，特於館內播放「戰時回憶─馬祖老影片」。軍管時期，民眾無法持有相機，僅軍方能拍照與攝影，故此時的影像紀錄，顯得彌足珍貴，讓觀者能透過影片，回顧軍民真實生活，更揭開戰地政務下的神秘面紗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2720&amp;l=1</t>
+  </si>
+  <si>
+    <t>連江縣北竿鄉大坵島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有「梅花鹿島」之稱的大坵島位於北竿北方，與高登島為鄰，需要搭乘島際交通船隻才能前往，昔日曾經有居民居住及軍隊駐守，最風光的時候島上也多達三百多人在此居住，後來因時代變遷、人口外移至南、北竿居住，大坵島就變成了一座無人島，現今是馬祖唯一可以登島遊覽的無人島。
+這裡有長約400-500公尺的大坵生態步道，漫步在這條步道上可以看見各種百般萌態的梅花鹿，還有軍事設施場景，除了梅花鹿外，夏天還有機會看到飛翔的燕鷗，來馬祖時不妨順道來一趟大坵島，極具特色的生態環境，令人永生難忘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2721&amp;l=1</t>
+  </si>
+  <si>
+    <t>打開了八八坑道的大門，就像是開啟了一段窖藏的祕辛，坑道口兩旁擺著滿滿酒甕、上方有著大大的「八八坑道」四個字，走進坑道，內部可是相當涼爽，長年維持在攝氏16-19度，恆溫又穩定的環境，讓存放的老酒有一定品質，是絕佳的儲藏酒窖，坑道主體由花崗岩所構成，而坑道所在，就位於馬祖酒廠斜前方不遠處。
+相傳八八坑道原為居民躲避海盜的藏身山洞，在軍方進駐馬祖後，加以鑿高、挖深與強固，闢為戰車坑道，全長200公尺，可容納一個步兵團的兵力，正向出口可迎擊海上入侵的敵軍，後方出口可通往過去的南竿軍用機場；於1974年完工，施工期歷時約10年，由於落成之日適逢蔣公88歲誕辰，因此命名為「八八坑道」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連江縣南竿鄉復興村208號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-836-22345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2731&amp;l=1</t>
+  </si>
+  <si>
+    <t>在馬祖境天后宮的右側山上有一座媽祖巨神像，落成於2009年10月，近年來，「媽祖在馬祖」是馬祖主要的行銷口號，而媽祖巨神像的興建，從提案到正式落成花了10年以上的時間，代表著馬祖人民對於媽祖信仰的虔誠與決心。
+媽祖巨神像由365塊花崗岩為主結構雕琢而成，象徵著「365日、日日平安」，佇立在鄰近海岸的山丘上，看起來更是雄偉，法相慈悲，令人讚嘆；巨神像周邊，陳列由十二幅雕塑組成，述說媽祖得道成仙的故事；神像前的瞭望台遠觀似艘船，從遠處望向媽祖巨神像，就像媽祖乘著一艘船在海上航行，庇佑著當地居民。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連江縣南竿鄉媽祖巨神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-836-25630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2738&amp;l=1</t>
+  </si>
+  <si>
+    <t>想要深度體驗馬祖戰地風情，一定要將鐵堡納入旅遊路線中！來到仁愛村鐵板海邊上的獨立岩礁，隨即可以感受到戰地的肅殺氣氛，因此處地形險要、便於觀測海面動靜，早年曾被闢為軍事據點，由一班最精銳的兩棲蛙人部隊日夜戍守西側海岸線，更因防禦工事需要，將岩礁內部鑿空，上面覆以水泥掩體，粉刷迷彩漆料，並設置草綠色防護網架，甚至在岸邊崖壁上插滿了防止水鬼摸哨、突擊的碎玻璃與鐵條，佇立於浪濤中。
+水泥步道下的鐵堡內部是挖空的坑道，堅硬的花崗岩壁鑿痕歷歷，通道兩側可以看見昔日的地下石室、射口、砲台、房間、廁所及廚房等空間井然羅列，麻雀雖小，五臟俱全，過去由於鐵堡位處偏僻，還配置軍犬防衛，是當時防區唯一有軍階的軍犬，循著坑道登上頂端，海面動靜一覽無遺，也能看到軍犬的圈養住所。時至今日，硝煙遠離，小小的岩礁，曾是海防要塞，處處透露「鐵血剽悍、海上堡壘」的氣魄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連江縣南竿鄉鐵堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2742&amp;l=1</t>
+  </si>
+  <si>
+    <t>連江縣南竿鄉北海坑道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1968年，為戰略需要而開始的「北海計畫」在馬祖地區開鑿了不少「地下碼頭」，專供游擊戰艇停泊使用，如今在軍方釋出之後，成為馬祖地區特殊的「戰地景觀」，若無造訪北海坑道，便如同沒來過馬祖。
+北海坑道位處鐵板海岸線，為一深入山腹，貫穿岩壁，呈「井」字形交錯的水道，水道高18公尺，寬10公尺，長640公尺，漲潮時水位達8公尺，退潮時為4公尺，步道全長700公尺，走完一圈約需30分鐘，但要配合潮汐的漲退，在退潮時才能進入。
+這座可供百餘艘登陸小艇使用的地底坑道，當年被視為高難度的工程，共出動2個師、3個步兵營、1個工兵營以及1個傾卸車連混合編為3組，不分晝夜輪流施工，歷經820個工作天才完成。當時由於施工設備簡陋，除了用炸藥爆破外，全靠人力一鑿一斧挖掘花崗岩壁而成，不少官兵因而犧牲，工程之艱鉅、氣勢之壯闊，堪稱鬼斧神工之作。在過去戰雲密佈的年代，北海坑道曾經試圖要扮演著地下碼頭的運補功能；今日當人們走進深邃的坑道中，一幕幕雄偉壯闊的岩壁、幽暗浮動的倒影，都讓遊客不自覺地發出陣陣讚嘆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2747&amp;l=1</t>
+  </si>
+  <si>
+    <t>連江縣南竿鄉24號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-836-23338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍眼淚是許多遊客對馬祖的第一印象，但藍眼淚卻並不是一年四季都看得到，即便時節對了，也會受氣候等因素影響。2018年8月成立的馬祖藍眼淚生態館是馬祖第一座具有高互動性的自然遺產生態主題館，除了靜態的馬祖生態介紹外，更運用4D環繞虛擬實境，讓遊客身歷其境，不分季節都能體驗與藍眼淚的互動。
+生態館附近建築外牆和堤防邊畫著栩栩如生的海洋3D彩繪牆，雖然範圍不大，但卻十分美麗；藍眼淚生態館原先是水產試驗所，後改建為藍眼淚生態館，結合海洋大學夜光蟲培育技術，也進行藍眼淚的培育工作，並藉由專業導覽解說，讓遊客近距離的認識藍眼淚，不受季節天候的限制，一年四季無論白天或晚上，都能看見馬祖珍貴自然資產－藍眼淚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.matsu-nsa.gov.tw/Attraction-Content.aspx?a=2746&amp;l=1</t>
+  </si>
+  <si>
+    <t>連江縣南竿鄉雲台山軍情館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲台山標高248公尺，是南竿第一高峰，為台灣小百岳第98座，更是登高遠眺馬祖列島與大陸北茭半島的最佳景點。
+為瞭解馬祖戰略情勢與當時敵軍動態，馬防部1996年於此興建軍情館，藉以強化官兵敵情教育，2009年考量兼顧馬祖地區觀光發展，軍情館內陳列資料依據國家機密保護法完成篩檢及遷移，並同意馬管處辦理原軍情館整修，遂於2010年11月7日開放遊客參訪。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,6 +474,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -689,26 +793,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="56.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="35.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -719,252 +824,387 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="208">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="176">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="240">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="320">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="208">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="128">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="144">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="144">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="80">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="10" spans="1:11" ht="160">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="80">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    <row r="11" spans="1:11" ht="128">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="64">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
+    <row r="12" spans="1:11" ht="144">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="144">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="80">
-      <c r="A5" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="80">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="64">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{9C8FFFDC-DDBB-BA4C-AD34-12CDBCFF6F43}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{647F03D7-FEA7-A240-BFC8-CCFF9BAD8F99}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{F94658F6-9DD1-C243-BB99-0CCFAC49AAC3}"/>
-    <hyperlink ref="K6" r:id="rId4" xr:uid="{ED5CABF3-C21F-2F48-88B5-E8F02A507CA1}"/>
-    <hyperlink ref="K7" r:id="rId5" xr:uid="{A3573323-02A2-8D4E-8136-11B4D11F40A4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>